--- a/sheets/DISAR - Şanizade - Demirkan.xlsx
+++ b/sheets/DISAR - Şanizade - Demirkan.xlsx
@@ -104,7 +104,45 @@
     <t xml:space="preserve">1818-07-25-1818-08-03</t>
   </si>
   <si>
-    <t xml:space="preserve">Ve evahır-ı ramazanda  Hace Hanı kurbunde vaki‘ Cezzar Paşa KapuKethudası Mukellef-zade Konağı dimekle meşhur olup, bundan akdem merhume Valide Sultan Kethudası Seyyid Mehmed Efendi fevtinde hala Kethuday-ı Sadr-ı ‘ali Mustafa Erib Efendi'nin temelluk eylediği konağın hammamı kulhanından vakt-i ‘işada ateş furuzan ve şedid gun-doğusu ruzgariyle1 fi'l-hal etrafa perakende vu perişan olarak, az vakitde havalisi ve alt yanında Mahmud-paşa Carşusu temamen suzan oldu. Ve ateş yukaru carşu tarafına hucum u veseban edup, me’murin ve zabitanın ise tekarrub u mumana‘atden ‘aczleri numayan iken, bundan akdemce Darb-hane Emini ‘Abdurrahman Bey'in han behanesiyle garaz-ı ahara mebni Rodos'a nefy etdirdiği Ermeni re‘ayasından Hancı Arakil nam zimminin iki seneden beru Mahmud Paşa Carsusu başında muceddeden bina etdiği henuz na-temam han-ı musanna‘, ateşin carşu ve bedestan taraflarına tecavuzune hele ha’il ve bu makûle kargir ebniyenin kat‘-ı harikde dahi menfa‘at-ı kulliyyesi olduğunu bi'n-nefs ru’yet eden erbab-ı dikkatde bir kat dahi tecribe hasıl ve bu sebeble carşuda olan bunca emval u eşya suzan ve ekseri de giriftar-ı eyadi-i yağma-geran olmak mazarratından ashabı selamete na’il oldu. Ve zabitan carşu kapularını kimesneye acmayup iceruye duhule mani‘ olmalariyle, erazil u eşhas harik behanesiyle ancak Mahmud Paşa Carşusu'nu boşatmak suretiyle Yehudiler'in eczay-ı hasiselerini biraz yağma ile kãni‘ oldular.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ve evahır-ı ramazanda  Hace Hanı kurbunde vaki‘ Cezzar Paşa KapuKethudası Mukellef-zade Konağı dimekle meşhur olup, bundan akdem merhume Valide Sultan Kethudası Seyyid Mehmed Efendi fevtinde hala Kethuday-ı Sadr-ı ‘ali Mustafa Erib Efendi'nin temelluk eylediği konağın hammamı kulhanından vakt-i ‘işada ateş furuzan ve şedid gun-doğusu ruzgariyle1 fi'l-hal etrafa perakende vu perişan olarak, az vakitde havalisi ve alt yanında Mahmud-paşa Carşusu temamen suzan oldu. Ve ateş yukaru carşu tarafına hucum u veseban edup, me’murin ve zabitanın ise tekarrub u mumana‘atden ‘aczleri numayan iken, bundan akdemce Darb-hane Emini ‘Abdurrahman Bey'in han behanesiyle garaz-ı ahara mebni Rodos'a nefy etdirdiği Ermeni re‘ayasından Hancı Arakil nam zimminin iki seneden beru Mahmud Paşa Carsusu başında muceddeden bina etdiği henuz na-temam han-ı musanna‘, ateşin carşu ve bedestan taraflarına tecavuzune hele ha’il ve bu makûle kargir ebniyenin kat‘-ı harikde dahi menfa‘at-ı kulliyyesi olduğunu bi'n-nefs ru’yet eden erbab-ı dikkatde bir kat dahi tecribe hasıl ve bu sebeble carşuda olan bunca emval u eşya suzan ve ekseri de giriftar-ı eyadi-i yağma-geran olmak mazarratından ashabı selamete na’il oldu. Ve zabitan carşu kapularını kimesneye acmayup iceruye duhule mani‘ olmalariyle, erazil u eşhas harik behanesiyle ancak Mahmud Paşa Carşusu'nu boşatmak suretiyle Yehudiler'in eczay-ı hasiselerini biraz yağma ile kãni‘ oldular. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(TARİH NOT: MİLADİ ARALIK: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1818-07-25-1818-08-03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">850-851</t>
@@ -285,9 +323,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -334,6 +372,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -356,7 +401,7 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +412,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B3CA"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -411,23 +462,31 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -440,7 +499,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,48 +523,56 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -537,7 +604,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB7B3CA"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -591,16 +658,16 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="135.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.29"/>
@@ -609,351 +676,351 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="2" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="8" customFormat="true" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="10" t="n">
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="n">
         <v>848</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="E2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="10" t="n">
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="n">
         <v>849</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="E3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10" t="n">
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="n">
         <v>851</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="E6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I8" s="12" t="s">
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I9" s="12" t="s">
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="E10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="E11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I12" s="12" t="s">
+      <c r="E12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -961,147 +1028,147 @@
       <c r="A13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I13" s="12" t="s">
+      <c r="E13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="10" t="n">
+      <c r="C14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12" t="n">
         <v>590</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="10" t="n">
-        <v>2008</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="E14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="21"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="14"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="14"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="14"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="14"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="14"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="14"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="14"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/sheets/DISAR - Şanizade - Demirkan.xlsx
+++ b/sheets/DISAR - Şanizade - Demirkan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t xml:space="preserve">Tarih (Yıl–Ay-Gün)</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">1818-01-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Ez-an-cumle mah-ı rebi‘ulevvelde Galata Mevlevi-hanesi civarında İsvec Elcisi hanesinden gice harik zuhur edup, ol seray-ı cesim bir sa‘at kadar vakitde kulliyyen muhterik u ‘adim olup, lakin ekser ebniye-i Efrenciyye minvali uzere etrafında hicbir binaya ittisali olmadığı sebeble, bir kimseye de zarar isali vaki‘ olmadı. </t>
+    <t xml:space="preserve">Ez-an-cümle mah-ı rebi‘ulevvelde Galata Mevlevi-hanesi civarında İsvec Elcisi hanesinden gice harik zuhur edup, ol seray-ı cesim bir sa‘at kadar vakitde külliyyen muhterik u ‘adim olup, lakin ekser ebniye-i Efrenciyye minvali üzere etrafında hiçbir binaya ittisali olmadığı sebeble, bir kimseye de zarar isali vaki‘ olmadı. </t>
   </si>
   <si>
     <t xml:space="preserve">İstanbul</t>
@@ -76,22 +76,21 @@
     <t xml:space="preserve">1818-04-16</t>
   </si>
   <si>
-    <t xml:space="preserve">Ve mah-ı cumadelahırın dokuzuncu gicesi Boğaz-ici'nde  Tarabya nam mahalde ka’in sabık Eflak Voyvodası İpsilanti yalısından ateş-i zebane-keş olup, ol binay-ı vesi‘ der-‘akab munkalib-i remad ve icinde on beş kimse yanup berbad oldu. Şoyle ki sahil-hane-i mezbur derununda beytutet eder sekiz ‘aded etfalin papas guruhundan bir haceleri olup, aşağı tabakada nerduban başında bir odada sakin ve ma‘ada cumle sekene-i hane tabaka-i ‘ulyada mutemekkin idiler. Nısf-ı leylde ol papas odasından ateş zuhurunda bidar olup, heman firar ve guya şaşırup mebhut olarak bila-ihbar yalı kapusundan tışaruya guzar eder, ateş dahi aşağı katı temamen isti‘abla nerduban ve suffe pur-iltihab oldukda:
+    <t xml:space="preserve">Ve mah-ı cumadelahırın dokuzuncu gicesi Boğaz-içi'nde  Tarabya nam mahalde ka’in sabık Eflak Voyvodası İpsilanti yalısından ateş-i zebane-keş olup, ol binay-ı vesi‘ der-‘akab münkalib-i remad ve içinde on beş kimse yanup berbad oldu. Şöyle ki sahil-hane-i mezbur derununda beytutet eder sekiz ‘aded etfalin papas güruhundan bir haceleri olup, aşağı tabakada nerduban başında bir odada sakin ve ma‘ada cümle sekene-i hane tabaka-i ‘ulyada mütemekkin idiler. Nısf-ı leylde ol papas odasından ateş zuhurunda bidar olup, heman firar ve guya şaşırup mebhut olarak bila-ihbar yalı kapusundan tışaruya güzar eder, ateş dahi aşağı katı temamen isti‘abla nerduban ve suffe pür-iltihab oldukda:
 Bîdâr şû ey dîde ki eymen ne-tüvân bûd
-Z'în seyl-i dem-â-dem ki derîn-menzil-i hâbest*
-mufadınca yukaruda olanlar ba‘de-harabi'l-Basra henuz uyanup feryad ve pic  u tab etdiler ise de, tarik-ı iyab u zihab na-bud ve yukaru tabakanın yuksekliği on iki zira‘dan ziyade ma‘dud ve ba-husus tutun ve kığılcımdangoz acamayarak ‘akl u şu‘urları za’il u mefkûd olmağla, semender gibi ateş icinde kaldılar. Ve Voyvoda-i merkûmun validesi ve oğlu ve uc ‘aded başka nisvan ve sekiz cocuk ve dort hıdmet-kardan fekat anası ve bir kucuk cocuk kendilerini pencereden sokağa atdılar. Ve cocuk sağ kalup karının a‘zası şikest olmağla, iki gun mururunda ol dahi helak oldu. Bu harik ba‘zı Rum nakline
-ve odasından ateş zuhur edup, sukutla firar eden merkûm papasın tavrına nazaran Fenarlı Rum [M2 398] ha’inlerinin birbirlerine mu‘tadları olan gadr u ‘adavete haml olundu. Ve min-tarafillah firari İpsilanti ha’ini hanedanına mukafat u mucazat oldu. 
+Z'în seyl-i dem-â-dem ki derîn-menzil-i hâbest
+müfadınca yukaruda olanlar ba‘de-harabi'l-Basra henüz uyanup feryad ve piç  u tab etdiler ise de, tarik-ı iyab u zihab na-bud ve yukaru tabakanın yüksekliği on iki zira‘dan ziyade ma‘dud ve ba-husus tütün ve kığılcımdan göz açamayarak ‘akl ü şu‘urları za’il u mefkûd olmağla, semender gibi ateş içinde kaldılar. Ve Voyvoda-i merkûmun validesi ve oğlu ve üç  ‘aded başka nisvan ve sekiz cocuk ve dört hıdmet-kardan fekat anası ve bir kücük çocuk kendilerini pencereden sokağa atdılar. Ve çocuk sağ kalup karının a‘zası şikest olmağla, iki gün mururunda ol dahi helak oldu. Bu harik ba‘zı Rum nakline
+ve odasından ateş zuhur edüp, sükutla firar eden merkûm papasın tavrına nazaran Fenarlı Rum ha’inlerinin birbirlerine mu‘tadları olan gadr u ‘adavete haml olundu. Ve min-tarafillah firari İpsilanti ha’ini hanedanına mükafat u mücazat oldu. 
 Beyt:
 Eğer harâb şeved memleket zi-Şâh-ı merenc
-Ki nezd-i Hak be-hakîkat günâh-ı dervîşest**
+Ki nezd-i Hak be-hakîkat günâh-ı dervîşest 
 </t>
   </si>
   <si>
     <t xml:space="preserve">1818-07-15</t>
   </si>
   <si>
-    <t xml:space="preserve">Ve nısf-ı ramazanda teravih vaktinde Odun-kapusu dahilinde boyacı dukkanından harik zuhur edup, der-‘akab etrafına sari vu menşur oldu. Meğer ol mahalde barutcu dukkanları altında kulliyyetlu barut meknuz ve re‘aya sefinelerine ve sa’ir taliblerine istedikleri kadar furuht etmek icun varuller ile barut mestur u mahfuz imiş; ateş ol dukkanlara vasıl ve me’murlar yıkup sulamak ile muştagil ve barut var ise her bir dukkanda birkac vakıyye kadar mulahazasında iken, na-gah barut muşta‘il ve ateşe uzacık bulunan dukkanlardan cıkarup yuvarlayarak kacırmak istedikleri barut varullerine dahi kığılcım munsab
-u vasıl oldukda, tulumbacı neferat ve zabitanından ve sa’ir me’murlardan ve ol mahallere yakın bulunan kesan ve ashab-ı hane ve dukkandan seksan kadar adem barut ateşiyle yanup helak ve birazının dahi sadme-i barutla yıkılan divar ve dokilan ebniye vu ahcar u eşcar isabet u darbiyle giriban-ı hayatları cak olup, bir mikdarı dahi mecruh olarak etrafa menkûl ve sa’ir hazırin dahi ba‘de-zin giruye cekilup ateşi uzakdan temaşaya meşgûl oldular. Ve barut darbından ol civarda olan buyut-i sıgã r ve ebniye-i kibar def‘aten yıkılmak derecesinde mutezelzil u lerzan ve Kantarcılar uzerinde murtefi‘ Bab-ı Şeyhulislami'nin oda ve dehliz camları bir hamlede kulliyyen dokulup, ayine-i cihan-numa gibi gozden nihan oldu. Bu aralıkda Anadolu Kadı‘askeri bulunan Halil Hamid Paşa-zade Mir Mehmed ‘Arif Efendi, Şeyhulislam-ı vakt hazretlerine ‘arz-ı hulus u meveddet ve harik zuhurunda seray-ı muşarun ileyhe esb-suvar-ı ‘azimet ve Yeniceri Ağası'na tafra-furuş-i sebkat olarak zir-i dehlize ha’iz oldukda, harikden tahlis icun yukarudan meydana endaht olunan oda yasdıklarının biri, beden-i nezaket-me’nuslarına manend-i kabus nuzul ve isabet etmekle, sadme-i cism-i sakil ile atından havliye sakıt ve hiss u hareketden munkatı‘ u habıt olup, hele etba‘ı bir kenara cekilerek biraz teneffusle şu‘ur-i sabıkları ‘avdet ile biraz kesb-i liyakat eylediklerinde, huddam mu‘avenetiyle Sadefciler Suku'nda Salih-zade Efendi hafidlerinden iştira eyledikleri konaklarına ric‘at ve birkac gun sukun u mudavatla da‘vet-i sıhhat edup, biraz eyyam dahi muste’nis-i erbab-ı ziyaret olarak mustemi‘-i makãle-i be-hayr-guzeşt oldular. “İzâ hâne'l-kazâ zâka'l-fezâ”.
+    <t xml:space="preserve">Ve nısf-ı ramazanda teravih vaktinde Odun-kapusu dahilinde boyacı dükkanından harik zuhur edüp, der-‘akab etrafına sari vü menşur oldu. Meğer ol mahalde barutcu dükkanları altında külliyyetlü barut meknuz ve re‘aya sefinelerine ve sa’ir taliblerine istedikleri kadar füruht etmek içün varuller ile barut mestur u mahfuz imiş; ateş ol dükkanlara vasıl ve me’murlar yıkup sulamak ile müştagil ve barut var ise her bir dükkanda birkaç vakıyye kadar mülahazasında iken, na-gah barut müşta‘il ve ateşe uzacık bulunan dükkanlardan cıkarup yuvarlayarak kaçırmak istedikleri barut varullerine dahi kığılcım munsab u vasıl oldukda, tulumbacı neferat ve zabitanından ve sa’ir me’murlardan ve ol mahallere yakın bulunan kesan ve ashab-ı hane ve dükkandan seksan kadar adem barut ateşiyle yanup helak ve birazının dahi sadme-i barutla yıkılan divar ve dökilan ebniye vü ahcar u eşcar isabet ü darbiyle giriban-ı hayatları cak olup, bir mikdarı dahi mecruh olarak etrafa menkûl ve sa’ir hazırîn dahi ba‘de-zin girüye cekilüp ateşi uzakdan temaşaya meşgûl oldular. Ve barut darbından ol civarda olan büyut-i sıgãr ve ebniye-i kibar def‘aten yıkılmak derecesinde mutezelzil ü lerzan ve Kantarcılar üzerinde mürtefi‘ Bab-ı Şeyhulislamî'nın oda ve dehliz camları bir hamlede külliyyen dökülüp, ayine-i cihan-numa gibi gözden nihan oldu. Bu aralıkda Anadolu Kadı‘askeri bulunan Halil Hamid Paşa-zade Mir Mehmed ‘Arif Efendi, Şeyhulislam-ı vakt hazretlerine ‘arz-ı hulus u meveddet ve harik zuhurunda seray-ı müşarun ileyhe esb-süvar-ı ‘azimet ve Yeniceri Ağası'na tafra-füruş-i sebkat olarak zir-i dehlize ha’iz oldukda, harikden tahlis içün yukarudan meydana endaht olunan oda yasdıklarının biri, beden-i nezaket-me’nuslarına manend-i kabus nüzul ve isabet etmekle, sadme-i cism-i sakil ile atından havliye sakıt ve hiss ü hareketden munkatı‘ u habıt olup, hele etba‘ı bir kenara çekilerek biraz teneffüsle şu‘ur-i sabıkları ‘avdet ile biraz kesb-i liyakat eylediklerinde, huddam mu‘avenetiyle Sadefciler Suku'nda Salih-zade Efendi hafidlerinden iştira eyledikleri konaklarına ric‘at ve birkaç gün sukun ü müdavatla da‘vet-i sıhhat edüp, biraz eyyam dahi müste’nis-i erbab-ı ziyaret olarak müstemi‘-i makãle-i be-hayr-güzeşt oldular. “İzâ hâne'l-kazâ zâka'l-fezâ”.
 Beyt:
 Sevk ede cunki bir işi takdir
 Anı ‘avk edebile mi tedbir?
@@ -104,45 +103,8 @@
     <t xml:space="preserve">1818-07-25-1818-08-03</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ve evahır-ı ramazanda  Hace Hanı kurbunde vaki‘ Cezzar Paşa KapuKethudası Mukellef-zade Konağı dimekle meşhur olup, bundan akdem merhume Valide Sultan Kethudası Seyyid Mehmed Efendi fevtinde hala Kethuday-ı Sadr-ı ‘ali Mustafa Erib Efendi'nin temelluk eylediği konağın hammamı kulhanından vakt-i ‘işada ateş furuzan ve şedid gun-doğusu ruzgariyle1 fi'l-hal etrafa perakende vu perişan olarak, az vakitde havalisi ve alt yanında Mahmud-paşa Carşusu temamen suzan oldu. Ve ateş yukaru carşu tarafına hucum u veseban edup, me’murin ve zabitanın ise tekarrub u mumana‘atden ‘aczleri numayan iken, bundan akdemce Darb-hane Emini ‘Abdurrahman Bey'in han behanesiyle garaz-ı ahara mebni Rodos'a nefy etdirdiği Ermeni re‘ayasından Hancı Arakil nam zimminin iki seneden beru Mahmud Paşa Carsusu başında muceddeden bina etdiği henuz na-temam han-ı musanna‘, ateşin carşu ve bedestan taraflarına tecavuzune hele ha’il ve bu makûle kargir ebniyenin kat‘-ı harikde dahi menfa‘at-ı kulliyyesi olduğunu bi'n-nefs ru’yet eden erbab-ı dikkatde bir kat dahi tecribe hasıl ve bu sebeble carşuda olan bunca emval u eşya suzan ve ekseri de giriftar-ı eyadi-i yağma-geran olmak mazarratından ashabı selamete na’il oldu. Ve zabitan carşu kapularını kimesneye acmayup iceruye duhule mani‘ olmalariyle, erazil u eşhas harik behanesiyle ancak Mahmud Paşa Carşusu'nu boşatmak suretiyle Yehudiler'in eczay-ı hasiselerini biraz yağma ile kãni‘ oldular. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(TARİH NOT: MİLADİ ARALIK: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1818-07-25-1818-08-03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">Ve evahır-ı ramazanda  Hace Hanı kurbünde vaki‘ Cezzar Paşa Kapu Kethudası Mükellef-zade Konağı dimekle meşhur olup, bundan akdem merhume Valide Sultan Kethudası Seyyid Mehmed Efendi fevtinde hala Kethuday-ı Sadr-ı ‘ali Mustafa Erib Efendi'nin temellük eylediği konağın hammamı külhanından vakt-i ‘işada ateş füruzan ve şedid gün-doğusu ruzgariyle fi'l-hal etrafa perakende vü perişan olarak, az vakitde havalisi ve alt yanında Mahmud-paşa Çarşusu temamen suzan oldu. Ve ateş yukaru çarşu tarafına hücum ü veseban edüp, me’murin ve zabitanın ise tekarrub ü mumana‘atden ‘aczleri nümayan iken, bundan akdemce Darb-hane Emini ‘Abdurrahman Bey'in han behanesiyle garaz-ı ahara mebni Rodos'a nefy etdirdiği Ermeni re‘ayasından Hancı Arakil nam zimminin iki seneden berü Mahmud Paşa Çarsusu başında müceddeden bina etdiği henuz na-temam han-ı musanna‘, ateşin çarşu ve bedestan taraflarına tecavüzüne hele ha’il ve bu makûle kargir ebniyenin kat‘-ı harikde dahi menfa‘at-ı külliyyesi olduğunu bi'n-nefs ru’yet eden erbab-ı dikkatde bir kat dahi tecribe hasıl ve bu sebeble çarşuda olan bunca emval ü eşya suzan ve ekseri de giriftar-ı eyadi-i yağma-geran olmak mazarratından ashabı selamete na’il oldu. Ve zabitan çarşu kapularını kimesneye acmayup içerüye duhule mani‘ olmalariyle, erazil ü eşhas harik behanesiyle ancak Mahmud Paşa Çarşusu'nu boşatmak suretiyle Yehudiler'in eczay-ı hasiselerini biraz yağma ile kãni‘ oldular. (TARİH NOT: MİLADİ ARALIK: 1818-07-25-1818-08-03)
+</t>
   </si>
   <si>
     <t xml:space="preserve">850-851</t>
@@ -151,24 +113,25 @@
     <t xml:space="preserve">1818-08-14</t>
   </si>
   <si>
-    <t xml:space="preserve">Ve mah-ı şevvalin on birinci gunu vakt-i duhada Kadırga Limanı nam mahalde Haseki-başı Ağa'nın konağı civarından bir harik-ı hanuman-suz lehibefruz- i zuhur u buruz olup, bir kolu Kum-kapu tarafına giderek ol havali ebniyesini mahv u ifna, lakin ba‘zı sarraf ve mutemevvil tuccar-ı Ermeni hanelerinden hariki sarf u tenkise ve hususan Ermeni Kilisasi'ni hıfz u tahlisa sa‘y eden tulumbacılar ve zabitan ve be-tahsis ba‘zı ustadan-ı muşarun bi'lbenan hadimu'l-bunyanı, ebniye-beha kadar kise tahsiliyle ma‘mur u ihya etmekle, [mısra]‘:
+    <t xml:space="preserve">Ve mah-ı şevvalin on birinci günü vakt-i duhada Kadırga Limanı nam mahalde Haseki-başı Ağa'nın konağı civarından bir harik-ı hanuman-suz lehib-efruz- i zuhur u buruz olup, bir kolu Kum-kapu tarafına giderek ol havali ebniyesini mahv u ifna, lakin ba‘zı sarraf ve mütemevvil tüccar-ı Ermeni hanelerinden hariki sarf u tenkise ve hususan Ermeni Kilisasi'ni hıfz u tahlisa sa‘y eden tulumbacılar ve zabitan ve be-tahsis ba‘zı üstadan-ı müşarun bi'lbenan hadimü'l-bünyanı, ebniye-beha kadar kise tahsiliyle ma‘mur u ihya etmekle, [mısra]‘:
 Heman karında olsun gamzeler, ‘alem helak olsun
-mufadınca ekser neferat u ustad Kum-kapu koluna terakum u tezahum ile meşgûl-i dad u sitad olduklarından, dest-i erreciler tarafına gelan kol ancak ba‘zı mu‘ayyen tulumbalar ve me’murların ma‘a'l-kerahe huzuriyle ertesi nısfı leyle kadar ‘ala halihi mesabesinde yanarak medid ve Okcular-başı
-Carşusu'nu dahi yakup, Sultan Bayezid Cami‘i havlisine muntehi vu resid oldu.
+müfadınca ekser neferat ü üstad Kum-kapu koluna teraküm ü tezahüm ile meşgûl-i dad ü sitad olduklarından, dest-i erreciler tarafına gelan kol ancak ba‘zı mu‘ayyen tulumbalar ve me’murların ma‘a'l-kerahe huzuriyle ertesi nısfı leyle kadar ‘ala halihi mesabesinde yanarak medid ve Okcular-başı
+Çarşusu'nu dahi yakup, Sultan Bayezid Cami‘i havlisine müntehi vü resid oldu.
 </t>
   </si>
   <si>
     <t xml:space="preserve">1820-10-07</t>
   </si>
   <si>
-    <t xml:space="preserve">‘Abd-i kalilu'l-bida‘anın zic-i Kasini[=Cassini]'den uc def‘a takvim-i neyyireyn ahz ederek, bi'l-istikra hisabım muktezasınca mah-ı zilhiccenin yirmi dokuzuncu pencşenbih gunu◊ tulu‘-i afitabdan dokuz sa‘at kırk iki  dakika mururunda kurs-ı kamer kure-i arz ile cirm-i şems beynine garbdan şarka doğru haylulete başlayup, kamerin zıllı kusuf-i mezburda sath-ı zeminden isti‘ab edebileceği eraziden arz-ı Kostantiniyye'de şems-i munir ‘ukde-i zenebde inkisafa agã z, ya‘ni [mısra]‘:
-ez-Zenbu fi't-tarfi la li'n-necmi1 fi's-sıgari*
-hakikatince, ziya’-i mihr-i munirden kıt‘a-i mezkure-i arz mahrum olmağa başlayarak, bed’-i kusuf oldu. Ve tulu‘-ı şemsden on sa‘at elli sekiz dakika  mururunda on iki ısbı‘ farz olunur cirm-i şemsin on ısbı‘ ve altı cuz’ ısbı‘ı munkesif olmağla, vasat-ı kusuf oldu. Ol vakit şemsin mestur olmayan kıt‘ası
-taraf-ı muhaddebi şark ve şimal ve muka‘‘arı garb ve cenub beynine muteveccih olarak uc dort gunluk hilal misali gorinur idi. Ve zulmet-i heva dahi:
+    <t xml:space="preserve">‘Abd-i kalilü'l-bida‘anın zic-i Kasini[=Cassini]'den uc def‘a takvim-i neyyireyn ahz ederek, bi'l-istikra hisabım muktezasınca mah-ı zilhiccenin yirmi dokuzuncu pencşenbih günü tulu‘-i afitabdan dokuz sa‘at kırk iki  dakika mururunda kurs-ı kamer küre-i arz ile cirm-i şems beynine garbdan şarka doğru haylulete başlayup, kamerin zıllı küsuf-i mezburda sath-ı zeminden isti‘ab edebileceği eraziden arz-ı Kostantiniyye'de şems-i münir ‘ukde-i zenebde inkisafa agã z, ya‘ni [mısra]‘:
+ez-Zenbu fi't-tarfi la li'n-necmi fi's-sıgari
+hakikatince, ziya’-i mihr-i münirden kıt‘a-i mezkure-i arz mahrum olmağa başlayarak, bed’-i küsuf oldu. Ve tulu‘-ı şemsden on sa‘at elli sekiz dakika  mururunda on iki ısbı‘ farz olunur cirm-i şemsin on ısbı‘ ve altı cuz’ ısbı‘ı münkesif olmağla, vasat-ı küsuf oldu. Ol vakit şemsin mestur olmayan kıt‘ası
+taraf-ı muhaddebi şark ve şimal ve muka‘‘arı garb ve cenub beynine müteveccih olarak üç dört günlük hilal misali görinür idi. Ve zulmet-i heva dahi:
 Cihan tarik mi-binem ne-danem
-Siyeh şud ruz u ya şeb-ra seher nist**
-matla‘ı uzere henuz2 şemsin gurubu ‘akabindeki3 olduğu mertebelerde idi. Ve der-‘akab incilaya başlayup, yine tulu‘dan on iki sa‘at on uc dakika  mururunda temamen munceli oldu; ve huve‘ala kulli şey’in kadir.
-Cunki kã ‘ide-i muhasibin uzere tali‘-i vasat-ı kusuf, Delv Burcu'nun dort derece ve uc dakikası olmağla, bi't-tesviye beyt-i salisde raci‘an mukã bele-i  Behram'da bulunan Zuhal, mudebbir-i kusuf olup, cuz’-i ictima‘-ı hakiki, Sunbule'nin on dort derece ve kırk yedi dakikası [M3 127] olmakdan naşi,  mudebbirin şeriki, hane-i sabi‘de bulunan ‘Utarid ve Kamer dahi mudebbir-i mevzi‘-i kusuf olmuşdur.  Bina’en ‘aleyh erbab-ı ahkam-ı nucum zu‘munca, kusuf-i mezburun burc-i kıran-ı intikã lide vukû‘u sebebiyle eseri kusufat-ı ‘adiyeden akva ve cumle-i ahkamından “Eşcar ve Esmar” nam te’lif-i muhtarın şecere-i salisesi,  şu‘be-i hamisesinin semere-i rabi‘asında bu makûle kusufun eva’il-i kıranda vukû‘una da’ir bahs u temhid pek ma‘kûl ve mucerreb ve gã yetde ra‘nadır; vallahu ya‘lemu'l-hafaya. Beyt:
+Siyeh şud ruz u ya şeb-ra seher nist
+matla‘ı üzere henüz şemsin gurubu ‘akabindeki olduğu mertebelerde idi. Ve der-‘akab incilaya başlayup, yine tulu‘dan on iki sa‘at on üç dakika  mururunda temamen münceli oldu; ve huve‘ala kulli şey’in kadir.
+Çünki kã ‘ide-i muhasibin üzere tali‘-i vasat-ı küsuf, Delv Burcu'nun dört derece ve üç dakikası olmağla, bi't-tesviye beyt-i salisde raci‘an mukã bele-i  Behram'da bulunan Zuhal, müdebbir-i küsuf olup, cüz’-i ictima‘-ı hakiki, Sünbüle'nin on dört derece ve kırk yedi dakikası olmakdan naşi,  müdebbirin şeriki, hane-i sabi‘de bulunan ‘Utarid ve Kamer dahi müdebbir-i mevzi‘-i küsuf olmuşdur.
+Bina’en ‘aleyh erbab-ı ahkam-ı nücum zu‘munca, küsuf-i mezburun burc-i kıran-ı intikãlide vukû‘u sebebiyle eseri küsufat-ı ‘adiyeden akva ve cümle-i ahkamından “Eşcar ve Esmar” nam te’lif-i muhtarın şecere-i salisesi,  şu‘be-i hamisesinin semere-i rabi‘asında bu makûle küsufun eva’il-i kıranda vukû‘una da’ir bahs ü temhid pek ma‘kûl ve mücerreb ve gãyetde ra‘nadır; vallahu ya‘lemu'l-hafaya. Beyt:
 Du-ruze gerdişi yokdur be-vefk-ı hatır-ı hah
 Tabi‘at-ı felek-i na-bekarı biz biluruz.
 </t>
@@ -183,32 +146,25 @@
     <t xml:space="preserve">1811-06-15</t>
   </si>
   <si>
-    <t xml:space="preserve">Ve mah-ı mezburun yirmi birinci gunu Ordu-yi humayun tarafından esbak Cerhacı ‘Ali Paşa'nın Vezaret'i ibkã ve yirmi ucuncu gunu Boğazici'nde lenger-endaz-ı ikãmet olan kebir Donanma-yı humayun sefinelerinden Orta-koy onunde sahil-hane-i Fakir izasında olan Tavus-i Bahri nam kapaklu
-sefinenin orta direğine sa‘ika nuzul ve ol esnada filandırayı duzetmek icun  babafingo cubuğuna bir sırada sarılup cıkmakda olan uc ademlerden ancak  en yukarudaki ademe isabetle merkûm maktul olup, lakin a‘zası gevşeyup elleri cozulunceye dek bir dakika kadar yerinde karar etdiği esnada, olbir iki  adem mezburun helakinden deyyar haberdar olmayup, yine giruden yukaruya  cıkmakda idiler. Vakta ki mezburun elleri kurtulup kendusi kucuk canaklığa duşdukde, diğer iki kimse ol vakit kazıyyeden haberdar olmalariyle  bi-sabr u karar heman aşağıya can atup firar eyledikleri, muharrir-i Hakir'e re’ye'l-‘ayn bir ‘ibret-i ‘azime-i cenab-ı Settar olmuşidi. Ve andan sa‘ika-i  mezbure aşağıya inup sefinenin aşağiki tabakasında birkac1 nufusu dahi katl u  ifna ve top lumbarından cıkup gavs-ı derya eyledi. Ve der-‘akab orta direk  tutuşup su ile gucile itfa olundu*. “İzâ edbere'l-bahtu felâ fevka ve lâ tahte”**. Ve bu esnada Silahdar-ı Sadr-ı a‘zami Benderli ‘Ali Ağa şeca‘atine bina’en Ordu-yi humayun'da tevcih-i Vezaret'le Cerhacı-başılığ'a muntehab-i  kariha-i Sadaret-i ‘uzma oldu.
+    <t xml:space="preserve">yirmi üçüncü günü Boğaziçi'nde lenger-endaz-ı ikãmet olan kebir Donanma-yı hümayun sefinelerinden Orta-köy önünde sahil-hane-i Fakir izasında olan Tavus-i Bahri nam kapaklu sefinenin orta direğine sa‘ika nüzûl ve ol esnada filandırayı düzetmek içün  babafingo çubuğuna bir sırada sarılup cıkmakda olan üç ademlerden ancak  en yukarudaki ademe isabetle merkûm maktul olup, lakin a‘zası gevşeyup elleri cözülünceye dek bir dakika kadar yerinde karar etdiği esnada, olbir iki  adem mezbûrun helakinden deyyar haberdar olmayup, yine giruden yukaruya  çıkmakda idiler. Vakta ki mezbûrun elleri kurtulup kendüsi küçük çanaklığa düşdükde, diğer iki kimse ol vakit kazıyyeden haberdar olmalariyle  bi-sabr u karar heman aşağıya can atup firar eyledikleri, muharrir-i Hakir'e re’ye'l-‘ayn bir ‘ibret-i ‘azime-i cenab-ı Settar olmuşidi. Ve andan sa‘ika-i  mezbûre aşağıya inup sefinenin aşağiki tabakasında birkac nüfûsu dahi katl u  ifna ve top lumbarından cıkup gavs-ı derya eyledi. Ve der-‘akab orta direk  tutuşup su ile gücile itfa olundu . “İzâ edbere'l-bahtu felâ fevka ve lâ tahte”.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">472-473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yıldırım</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1811-06-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mah-ı cumadelulanın yirmi altıncı salı gicesi Galata fevkinde Bey-oğlu nam mahalde zuhur-i harik ile vafir büyût u dekakin muhterik olmakda iken, sabaha yakın bir ‘azim yağmur zuhur ve gitdikce müştedd u mevfûr olmağla, harik ile ma‘an yağmur ma‘azallahi Te‘ala az kaldı ki mazhar-ı sırr-ı “Ve fâre't-tennûr” ola. Ve andan peyda olan seyl-i ‘azim dere kenarlarında vaki‘ ba‘zı kurada ve hususan Kağıd-hane'de çok köprü ve bina harab ve vafir  hayvan ve insanı garik-ı gark-ı ab eyledi. Ez-an cümle  Beşiktaş'ın taş köprüsünü alup gitdi. Cisr-i mezbur hammam civarında olup, gãliba hammam bina olunmazdan evvel yapılmış olduğundan,  reh-i rastda olmayup yoldan deniz tarafına takriben beş zira‘-ı mi‘mari  mikdarı sapa düşdüğünden naşi, yolun doğruluğunca köprünün kemeri önüne  zemininden tahminen bir bucuk iki zira‘ mürtefi‘ kerasteden ma‘mul bir  yaya köprüsu yapılmış idi. Seyl-i mezbur köprü kemeri altından murûrda kemer  derununa sığamayup dere doldukda, su zikr olunan ağaç köprüyü  kaldırup taş köprünün kemeri ağzına yamamağla  mesdud eyledikde, yukaruya  doğru kefere mahallesi ve ba‘zı ehl-i İslam haneleri ve dahi yukaruda  dere civarındaki bağce ve bostanlar su ile dolup, Beşiktaş gûya bir derya  olmağla, mahallat-ı mezbure zokaklarında bulunan rical u nisvan u sıbyanın ba‘zıları gark olup, ba‘zılarını suyun yüzünden ba‘zı evlerin pencerelerinden  tutup içerüye aldılar. Bu hal üzere gitdikce teraküm eden ab-ı firavan yukaruda  Rum Kilisasi civarında ba‘zı hane ve bağce ve bostanın divarlarını hedm u  viran ederek seylin bir tarafı Cami‘-i Kebir civarından İskele meydanına cereyan  ve bir canibi Seray-ı humayun ensesine doğru veseban eyledi. Ve köprü  kurbünde olan dükkanların sukûfu dahi su icinde mestur ve  değirmanda birkac adem ile bi'l-cumle bargirler boğulup, meşakkat-i carh-ı  devvardan dur oldular. Nisvan hammamında henüz duha vakti olup giceden  berü ise şiddet-i baran sebebiyle kimse bulunmadığı nümayan, ancak erkekler  hammamında olan huddam-ı hammamdan ba‘zıları huruc ve mukaddemce firar ile “el-Firâru fî vaktihî zaferun” tarikasını ihtiyar, ba‘zıları ise guya  sedd-i bab-ı kaza ile came-kende meks u ıstıbar esnasında, suyun hamline  kapu dayanamayup açıldıkda, seyl came-ken ve hammam derunlarına hucum  u cereyan ve halvet-haneler kubbelerine dek ve came-ken sakfına yakın mahalline değin su ile leb-riz olup, mukaddem hammam ve came-ken iken ab-ı  ‘azaba mahzen oldular. Ve içerüde kalanlar yüzerek boğulup öldürler. Beyt:
+Ve men lem yefirre mahalle'l-firâri
+Fe-yak‘udu mehebbe'r-riyâhi'd-demâr
+Bu aralıkda köprünün üzerinden taşup girdab gibi dönerek dökülen seyl ilerüde temelleri oyup köprünün ön tarafını boşatmağla, bi-temamihi sürüp  pare pare ederek deryaya ilkã ve köprüyle beraber yürüyen su ol civarda  değirman ve birkac dükkan ve Kışla-i Bostancıyan ve cüdran-ı bostan ile  birkaç insanı dahi alup deryaya revan, lakin köprünün kopduğu ‘ayn-ı  ‘inayet-i Yezdan oldu. Zira terâküm-i ma’ ile dahi ezyed-i hasaret olacağı  nümayan idi. Ve köprünün ba‘zı cesim mermer kıt‘aları, hatta tarih taşı dahi  sonra üç beş sene kadar Çinili Köşk kurbünde ka‘r-ı deryada meşhud-i a‘la  vu edna olmakda idi. 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">472-473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yıldırım</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1811-06-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mah-ı cumadelulanın yirmi altıncı salı gicesi Galata fevkinde Bey-oğlu nam mahalde zuhur-i harik ile vafir buyut u dekakin muhterik olmakda iken, sabaha yakın bir ‘azim yağmur zuhur ve gitdikce muştedd u mevfur olmağla, harik ile ma‘an yağmur ma‘azallahi Te‘ala az kaldı ki mazhar-ı sırr-ı “Ve
-fâre't-tennûr”* ola. Ve andan peyda olan seyl-i ‘azim dere kenarlarında vaki‘ ba‘zı kurada ve hususan Kağıd-hane'de cok kopru ve bina harab ve vafir  hayvan ve insanı garik-ı gark-ı ab eyledi. Ez-an cumle  Beşiktaş'ın taş koprusunu alup gitdi. Cisr-i mezbur hammam civarında olup, gãliba hammam bina olunmazdan evvel yapılmış olduğundan,  reh-i rastda olmayup yoldan deniz tarafına takriben beş zira‘-ı mi‘mari  mikdarı sapa duşduğunden naşi, yolun doğruluğunca koprunun kemeri onune  zemininden tahminen bir bucuk iki zira‘ murtefi‘ kerasteden ma‘mul bir  yaya koprusu yapılmış idi. Seyl-i mezbur kopru kemeri altından mururda kemer  derununa sığamayup dere doldukda, su zikr olunan ağac kopruyu  kaldırup taş koprunun kemeri ağzına yamamağla  mesdud eyledikde, yukaruya  doğru kefere mahallesi ve ba‘zı ehl-i İslam haneleri ve dahi yukaruda  dere civarındaki bağce ve bostanlar su ile dolup, Beşiktaş guya bir derya  olmağla, mahallat-ı mezbure zokaklarında bulunan rical u nisvan u sıbyanın ba‘zıları gark olup, ba‘zılarını suyun yuzunden ba‘zı evlerin pencerelerinden  tutup iceruye aldılar. Bu hal uzere gitdikce terakum eden ab-ı firavan yukaruda  Rum Kilisasi civarında ba‘zı hane ve bağce ve bostanın divarlarını hedm u  viran ederek seylin bir tarafı Cami‘-i Kebir civarından İskele meydanına cereyan  ve bir canibi Seray-ı humayun ensesine doğru veseban eyledi. Ve kopru  kurbunde olan dukkanların sukûfu dahi su icinde mestur ve  değirmanda birkac adem ile4 bi'l-cumle bargirler boğulup, meşakkat-i carh-ı  devvardandur oldular. Nisvan hammamında henuz duha vakti olup giceden  beru ise şiddet-i baran sebebiyle kimse bulunmadığı numayan, ancak erkekler  hammamında olan huddam-ı hammamdan ba‘zıları huruc ve mukaddemce firar ile “el-Firâru fî vaktihî zaferun6”** tarikasını ihtiyar7, ba‘zıları ise guya  sedd-i bab-ı kaza ile came-kende meks u ıstıbar8 esnasında, suyun hamline  kapu dayanamayup acıldıkda, seyl came-ken ve hammam derunlarına hucum  u cereyan ve halvet-haneler kubbelerine10 dek ve came-ken sakfına yakın ma-
-halline değin su ile leb-riz1 olup, mukaddem hammam ve came-ken iken ab-ı  ‘azaba mahzen oldular. Ve icerude kalanlar yuzerek boğulup olduler. Beyt:
-Ve men lem yefirre mahalle'l-firâri
-Fe-yak‘udu mehebbe'r-riyâhi'd-demâr2*
-Bu aralıkda koprunun uzerinden taşup girdab gibi donerek dokulen seyl ilerude temelleri oyup koprunun on tarafını boşatmağla, bi-temamihi surup  pare pare ederek deryaya ilkã ve kopruyle3 beraber yuruyen su ol civarda  değirman ve birkac dukkan ve Kışla-i Bostancıyan ve cudran-ı bostan ile  birkac5 insanı dahi alup deryaya revan, lakin koprunun6 kopduğu ‘ayn-ı  ‘inayet-i Yezdan oldu. Zira terakum-i ma’ ile dahi ezyed-i hasaret olacağı  numayan idi. Ve koprunun ba‘zı cesim mermer kıt‘aları, hatta tarih taşı dahi  sonra uc beş sene kadar Cinili Koşk kurbunde ka‘r-ı deryada meşhud-i a‘la  vu edna olmakda idi.
-Ba‘de-za ‘inayet-i cenab-ı Şehriyar-ı kerem-bahşa ile der-‘akab muceddeden kopru inşasına irade-i ‘aliyye te‘allukuyla hala reh-i rastda evvelkiden  iki mertebe vus‘atlu ve bin kat muhkem ve a‘la bir cisr-i mu‘alla bina  ve hakk-ı ebna’-i  sebilde dahi vadi-i ‘inayet-i Şahane icra buyuruldu**. Li-Muharririhi:
-Kıldı ol Şah bu cari sadakãtı icra
-Ede sabit anı tahtında cenab-ı Mevla 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">473-474</t>
   </si>
   <si>
@@ -218,11 +174,11 @@
     <t xml:space="preserve">1811-07-29</t>
   </si>
   <si>
-    <t xml:space="preserve">Şehr-i recebin sekizinci isneyn gicesi ba‘de'l-gurub sa‘at bir derecelerinde iken Lanka Yeni-kapusu haricinde harik zuhur edup, şiddet-i ruzgar sebebiyle  der-‘akab kal‘a divarından iceruye veseban u duhul birle yemin u yesara uc kol oldu. Ve mukaddemce Kevkeb-i ‘Utarid cuz’-i ictima‘a dort derece karib ve dort gun evvel vukû ‘ bulan Esed tahvili zayicesinin  veted-i rabi‘inde bulunup, ba‘dehu yine Burc-i nari-i Esed'de muhterik olmağla, harik-ı mezkurun ertesi gun sa‘at beşe dek on altı sa‘at kadar imtidadı, muneccimin zu‘munda ahkam-ı merkûmeye mahmul oldu Ve mine'l-‘aca’ib; harik-ı mezburda muhterik olan ebniyenin ekseri  Ermeni re‘ayası haneleri olup, ateşin ifratla şiddet u sur‘atinden ve yağmageranın  bi-mehaba evlere girup emval u eşyaya hucum u savletinden bicareler
-bi-şu‘ur u ser-gerdan ve ekserisi evlerini ‘ala halihim terk edup, sıbyan u nisvaniyle heman tahlis-ı ‘ırz u can icun gurizan olurlar idi. Ol vakt-i purdehşetde  menziline harik muttasıl olan zimmilerin biri, teşviş u ‘acele ile zir-i  zeminde mahzenine biraz eşya nakli kaydına duşup, ba‘zı ahbabı dahi tecemmu‘ u i‘anet ederek ba‘zı eşyayı mahzene ‘acaleten vaz‘a sarf u gayret u  iktidar ve kapağını sedd9 ve uzerini toprak ile setr eyledikden sonra cumlesi  firar etmiş ve der-‘akab harik ol haneyi dahi ihrak u heba edup ileruye  gecmiş idi. Meğer ev sahibesinin uc dort aylık kadar bir kucuk oğlu olup,
-beşikde kundaklu ve beşiğin uzeri ortulu imiş. İ‘anet eden kimselerin biri  telaş ve ‘acele ile beşiği dahi kapup dikkat etmeyerek mahzene vaz‘ eylemiş,  cocuğun validesi selamete cıkdıkda ‘aklı başına ve cocuğu hatırına gelup: “Vay meded benim oğlum beşikde kalup yandı. Kaşki ben yana idim!” deyu nevha vu figã na başladıkda, ol şahs: “Ben mahzene bir beşik vaz‘ eyledim,  lakin icinde cocuk olduğunu bilmem, bakmadım” demekle, gerci bi-care  valide semere-i fu’adından nevmid olarak, “Furkatü'l-evlâdi hurkatü'lekbâdi” mufadınca ah u enini muzdad edup, ancak “el-Garîku yete‘allaku
-bi-külli haşîşin” medlulunce mahzeni fethle veledin haline vukûf tahsiline  ‘acelede bi-ihtiyar olarak peder u mader bi-sabr u karar, der-‘akab ‘avdetle  ol gice harik etrafında serasime geşt u guzar eylediler. Lakin kerastenin ateşinden hane-i viraneleri mahalline tekarrub ‘adimu'l-imkan olmağla, ertesi  gun birkac tulumba ve birkac saka cem‘iyle ateşi bir mikdar itfa ve lağımcılar  geturup mahzen kapusunu bir takrible bulup, icine duhul u iltica eylediklerinde  ne gorurler ki, oğlan henuz yirmi dort sa‘ate karib vakitdir sağ  ve salim yatup cenab-ı Hudavend-i gayur derun-i narı ol ma‘sum-i pake nur
-eylemiş. Heman peder ve mader: “Vay evladım!” deyu uzerine kapanup  mahzenden tışaruya ihrac birle, validesi mele’-i nasda tıfl-i mezburu irza‘ eylediğini  cemm-i gafir ve cem‘-i kesir muşahede ve erbab-ı basiret, ve hal-i kudret-i hazret-i Zu'l-celal'i mu‘ayene eylediler; sübhânallahi lâ mâni‘alimâ yu‘tîhi.  Rubâ‘iyye:
+    <t xml:space="preserve">Şehr-i recebin sekizinci isneyn gicesi ba‘de'l-gurub sa‘at bir derecelerinde iken Lanka Yeni-kapusu haricinde harik zuhur edup, şiddet-i ruzgar sebebiyle  der-‘akab kal‘a divarından içerüye veseban u duhul birle yemin u yesara üç kol oldu. Ve mukaddemce Kevkeb-i ‘Utarid cüz’-i ictima‘a dört derece karib ve dört gün evvel vukû ‘ bulan Esed tahvili zayiçesinin  veted-i rabi‘inde bulunup, ba‘dehu yine Burc-i nari-i Esed'de muhterik olmağla, harik-ı mezkurun ertesi gün sa‘at beşe dek on altı sa‘at kadar imtidadı, müneccimin zu‘munda ahkam-ı merkûmeye mahmul oldu.  Ve mine'l-‘aca’ib; harik-ı mezburda muhterik olan ebniyenin ekseri  Ermeni re‘ayası haneleri olup, ateşin ifratla şiddet u sur‘atinden ve yağmageranın  bi-mehaba evlere girup emval u eşyaya hücum u savletinden biçareler
+bi-şu‘ur u ser-gerdan ve ekserisi evlerini ‘ala halihim terk edup, sıbyan u nisvaniyle heman tahlis-ı ‘ırz u can içüm gürizan olurlar idi. Ol vakt-i pürdehşetde  menziline harik muttasıl olan zimmilerin biri, teşviş ü ‘acele ile zir-i  zeminde mahzenine biraz eşya nakli kaydına düşüp, ba‘zı ahbabı dahi tecemmu‘ u i‘anet ederek ba‘zı eşyayı mahzene ‘acaleten vaz‘a sarf u gayret ü  iktidar ve kapağını sedd ve üzerini toprak ile setr eyledikden sonra cümlesi  firar etmiş ve der-‘akab harik ol haneyi dahi ihrak u heba edup ilerüye  geçmiş idi. Meğer ev sahibesinin üç dört aylık kadar bir küçük oğlu olup,
+beşikde kundaklu ve beşiğin üzeri örtülü imiş. İ‘anet eden kimselerin biri  telaş ve ‘acele ile beşiği dahi kapup dikkat etmeyerek mahzene vaz‘ eylemiş,  çocuğun validesi selamete çıkdıkda ‘aklı başına ve çocuğu hatırına gelüp: “Vay meded benim oğlum beşikde kalup yandı. Kaşki ben yana idim!” deyü nevha vü figãna başladıkda, ol şahs: “Ben mahzene bir beşik vaz‘ eyledim,  lakin içinde çocuk olduğunu bilmem, bakmadım” demekle, gerçi bi-çare  valide semere-i fu’adından nevmid olarak, “Furkatü'l-evlâdi hurkatü'lekbâdi” müfadınca ah u enini müzdad edüp, ancak “el-Garîku yete‘allaku
+bi-külli haşîşin” medlulünce mahzeni fethle veledin haline vukûf tahsiline  ‘acelede bi-ihtiyar olarak peder u mader bi-sabr u karar, der-‘akab ‘avdetle  ol gice harik etrafında serasime geşt ü güzar eylediler. Lakin kerastenin ateşinden hane-i viraneleri mahalline tekarrub ‘adimu'l-imkan olmağla, ertesi  gün birkaç tulumba ve birkaç saka cem‘iyle ateşi bir mikdar itfa ve lağımcılar  getürüp mahzen kapusunu bir takrible bulup, içine duhul u iltica eylediklerinde  ne görürler ki, oğlan henüz yirmi dört sa‘ate karib vakitdir sağ  ve salim yatup cenab-ı Hudavend-i gayur derun-i narı ol ma‘sum-i pake nur
+eylemiş. Heman peder ve mader: “Vay evladım!” deyü üzerine kapanup  mahzenden tışaruya ihrac birle, validesi mele’-i nasda tıfl-i mezburu irza‘ eylediğini  cemm-i gafir ve cem‘-i kesir müşahede ve erbab-ı basiret, ve hal-i kudret-i hazret-i Zu'l-celal'i mu‘ayene eylediler; sübhânallahi lâ mâni‘alimâ yu‘tîhi.  Rubâ‘iyye:
 Der-fi‘l-i hatâ fâ’ide hest nihân
 Z'ân fâ’ide âgâh niyend5 ehl-i cihân
 Billâh ki tevbe vü niyâz-ı mücrim
@@ -236,7 +192,8 @@
     <t xml:space="preserve">1811-09-03</t>
   </si>
   <si>
-    <t xml:space="preserve">Zic-i Kasini[=Cassini]'den Muharrir-i Hakir'in ber-muceb-i kã ‘ide-i hisab ve bi-tarikı'l-hendese resm u iktitab eylediğim uzere, şehr-i şa‘banu'l mu‘ azzamın on dorduncu salı gicesi  gurub-i afitabdan beş sa‘at ve beş dakika mururunda mah-ı munir, Burc-i Hut'da ‘ukde-i zenebde inhisafa agã z  ile gitdikce taklil-i iza’e vu tenvir edup, gurub-i şemsden altı sa‘at yirmi dort  dakika mururunda on iki ısbı‘ farz olunan cirm-i kamerin yedi bucuk ısbı‘ı  temamen munhasif olarak vasat-ı husuf olmağla, der-‘akab incilaya  agãz ve yine bed’-i husufdan vasat-ı husufa kadar olan vakte musavi vakt-i vasat- ı husufdan dahi bir sa‘at on dokuz dakika mururunda, ya‘ni gurub-i  şemsden yedi sa‘at kırk uc dakika mururunda temamen incila ile haylulet,  kevkeb-i arzdan kulliyyen halas oldu.  İmdi tali‘-i vasat-ı husuf, buruc-i şimaliden ve min-cihetin mensubat-i  Kostantiniyye'den olan Burc-i Seretan'ın muntasıfı ve mudebbiri kamer, hanei  sefer-i ba‘id olan beyt-i tasi‘de munhasif ve şeriki Zuhal olmakdan naşi,  zu‘m-i munecciminde ba‘zı asker-i İslam ve ser-i karan ve vuzeray-ı ‘izama  canib-i şimalde bir nehir ya derya kenarında menacinin ve mekkare vukû‘uyla  Asitane-i ‘aliyye ve mute‘allikã tı sukkanında ve ba-husus eşraf ve mukarrebanda  inkıbaz-ı derun ve enduh u gam ve kamerin ba‘de'l-incila ibtida  Mirrih ile terbi‘i dahi levend ve hazele makûlesinden ba‘zı ‘ulema vu e’imme  vu eşrafa zarar u nekbet ve elem vukû ‘una delil olup, bu husufun sa‘at-i sukûtu mucebince muddet-i te’siri iki mah ve on dokuz gun kadar olmağla,   “Ahkam-ı mezkure işbu nısf-ı şa‘bandan bed’ ile şehr-i zilka‘de-i atiye  eva’iline kadar temam olur dediler”; lâ ya‘lemü'l-gaybe illallâh. Mesnevî:
+    <t xml:space="preserve">Zic-i Kasini[=Cassini]'den Muharrir-i Hakir'in ber-muceb-i kã ‘ide-i hisab ve bi-tarikı'l-hendese resm ü iktitab eylediğim üzere, şehr-i şa‘banü'l mu‘ azzamın on dördüncü salı gicesi  gurub-i afitabdan beş sa‘at ve beş dakika mururunda mah-ı münir, Burc-i Hut'da ‘ukde-i zenebde inhisafa agãz  ile gitdikçe taklil-i iza’e vü tenvir edüp, gurub-i şemsden altı sa‘at yirmi dört  dakika mururunda on iki ısbı‘ farz olunan cirm-i kamerin yedi bucuk ısbı‘ı  temamen münhasif olarak vasat-ı husuf olmağla, der-‘akab incilaya  agãz ve yine bed’-i husufdan vasat-ı husufa kadar olan vakte müsavi vakt-i vasat- ı husufdan dahi bir sa‘at on dokuz dakika mururunda, ya‘ni gurub-i  şemsden yedi sa‘at kırk üç dakika mururunda temamen incila ile haylulet,  kevkeb-i arzdan kulliyyen halas oldu.  
+İmdi tali‘-i vasat-ı husuf, buruc-i şimaliden ve min-cihetin mensubat-i  Kostantiniyye'den olan Burc-i Seretan'ın muntasıfı ve müdebbiri kamer, hane-i  sefer-i ba‘id olan beyt-i tasi‘de münhasif ve şeriki Zuhal olmakdan naşi,  zu‘m-i munecciminde ba‘zı asker-i İslam ve ser-i karan ve vuzeray-ı ‘izama  canib-i şimalde bir nehir ya derya kenarında menacinin ve mekkare vukû‘uyla  Asitane-i ‘aliyye ve müte‘allikã tı sükkanında ve ba-husus eşraf ve mukarrebanda  inkıbaz-ı derun ve enduh u gam ve kamerin ba‘de'l-incila ibtida  Mirrih ile terbi‘i dahi levend ve hazele makûlesinden ba‘zı ‘ulema vü e’imme  vü eşrafa zarar u nekbet ve elem vukû‘una delil olup, bu husufun sa‘at-i sukûtu mucebince müddet-i te’siri iki mah ve on dokuz gün kadar olmağla,   “Ahkam-ı mezkure işbu nısf-ı şa‘bandan bed’ ile şehr-i zilka‘de-i atiye  eva’iline kadar temam olur dediler”; lâ ya‘lemü'l-gaybe illallâh. Mesnevî:
 În nücûm ü tıb vahy-i enbiyâst
 ‘Akl ü hiss-râ sûy-i bî-sûre kücâst
 </t>
@@ -248,17 +205,17 @@
     <t xml:space="preserve">ay tutulması</t>
   </si>
   <si>
-    <t xml:space="preserve">1801-05-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunki bin iki yuz on altı senesinde◊ vukû‘ bulan kıran-ı intikãlide  sahib-i tali‘-i sal olan Kevkeb-i ‘Utarid2, sahib-i samin olan nahs-ı ekberin  raci‘an mukã belesine muteveccih olup, beynleri takriben on derece kadar  olmağla, “Ve kezâ yedüllü ‘alâ mevt-i kesîrin min-emrâzin menfûretin husûsan mine'l-vebâ’i” ahkamı, tahminen vakt-i sal-i kırandan on sene  mururunda, ya‘ni yirmi yedi senesi eva’ilinde duhul ve ol zeman ta‘un  zuhur edeceğini ahkamiyyun ta ol vakt tefevvuh u iddi‘a ederler idi. el- ‘Uhdetü ‘alâ men ya‘tekıdü ve ‘alâ zu‘m-i men yedde‘î.  Bundan akdem bi't-tab‘ te‘affun-i arz u hevasiyle ‘adeten yine Mısır'a  ta‘un tari ve mucerreb u cari olduğu uzere amed u reft munasebetiyle andan  İzmir'e sari olmağla, bu gunlerde İzmir'den İstanbul'a gelan bir bazergan  sefinesinde dahi esnay-ı rahda ta‘un zuhur edup, icindeki Rum ta’ifesinden  birkacı mat‘unen helak olarak sefine-i mezbure Galata sahiline gelup, karar ve  ol aralıkda birkacı dahi te’sir-i veba ile bimar oldukda, mellahların bakıyyesi bi'l-cumle gemiden cıkup Galata ve Bey-oğlu ve Tatavla'da Rum mahallelerinde hem-şehrileri hanelerinde ve ba‘zı fevahiş suknalarında tard u ib‘ad havfiyle ta‘undan firar eylediklerini ketm u izmar ederek istikrar eylemişler  ise de, Fetâvây-ı Zahîriyye'de7 mezkur olduğu uzere İmam Tahavi'nin  ihrac eylediği, “İzâ vaka‘a haze'r-riczü bi-arzın felâ tedhûlûhâ ve izâ vaka‘a
-ve entüm fîhâ felâ tahrucû minhâ”* hadis-i şerifi muktezasınca bu maraz-ı  sari bi-izn-i Bari1 ol mahallere dahi tari olup, ibtida yine merkûm mellahlarda  ve eğlendikleri yerlerde ve mucaveret u ihtilat eyledikleri kimselerde rical u  nisvan u sıbyandan ba‘zı kesanda sirayet-i semmiyyet-i hadde-i vebeviyye ile  bir ta‘un-i seri‘u'l-ihlak zuhuriyle mat‘un olanlar sekizer onar sa‘at vakitde  fevt u helak olmağa başladılar. Bina’en ‘aleyh ol civarda bulunan ve anlarla  ihtilat etmiş olan Eravim2 ve Ermeniyan, Fenar ve Kiremid Mahallesi ve Kumkapu  semtlerinde ba‘zan kendu evleri ve ba‘zan aşinaları hanelerine evlad u  ‘iyalleriyle havf-ı canla nakl u iskan eylediklerinde, Asitane-i ‘aliyye'de dahi ibtida Fenar ve Kum-kapu taraflarında nagehan ta‘un hadis u  raygan ve der-‘akab mecma‘-i ehl-i zimmet olan carşu hanlarına tareyan ve andan ehl-i İslam mahallelerine4 sereyan edup ve'l-hasıl butun İstanbul ve  havalisine munteşir olmağla, halk uc beş gun zarfında iza‘a-i evlad u ‘iyal ve ifate-i ehibba vu hem-hal ederek, ta‘un musibetiyle dahi mahzun u  mutekeddir olmağa başladılar. Ashab-ı tahkik u istibsar dahi hazret-i Rasul-i  cenab-ı Kird-gar salavâtullâhi ‘aleyhi ve âlihî bi'l-‘aşâyâ ve'l-eshâr:  “Hacer-i Semud nam mesken-i Kavm-i Salih ‘aleyhi's-selâmdan esnay-ı  mururlarında ashab-ı kiramlariyle sahatullâhu ile helak olmuş kavm  meskenleridir” buyurup, mahall-i mezkurdan bunca murur-i duhur u  a‘sardan sonra yine meşy-i seri‘ ile guzar birle muba‘adet ihtiyar buyurduklarına sarf-ı im‘an-ı enzar ederek, hane vu meskenlerinde ‘uzlet u  inziva ile “Lâ tedhulû mesâkin'ellezîne zalemû illâ ve entüm bâkûn”* hadis-i şerifi mucebince firar ve ancak du‘ay-ı selamet-i Padişah-ı ‘alem-penah ve  munacat-ı necat-ı ummet-i bi-gunahla emr-i ihtiraz u tehaffuza ibtidar  edenlere ve Sahîh-i Buhârî'de Usametu'bnu Zeyd hazretlerinin rivayetleriyle  musahhah “et-Tâ‘ûnu riczün ürsile ‘alâ tâ’ifetin min-Benî İsrâ’îl” hadis-i şerifi mezayasından haberdar olanlar ve yine ravi-i muşarun ileyhden Meşârıkı şerîf'de musarrah1: “İzâ semi‘tümü't-tâ‘ûne bi-arzın felâ tedhulûhâ ve izâ vaka‘a bi-arzın ve entüm fîhâ2 felâ tahrucû minhâ” hadis-i sahihi emrine asar-ı ‘inad-ı cahili olan tekellufat-ı te’vilatdan kat‘-ı enzar ile ittiba‘ u i‘tibar  eyleyenler ‘ale't-tahkik ashab-ı ulfet u amizişden cuz’i ve kulli musab u  mukedder olmamış hicbir3 ferd kalmamişiken, re’y-i hakimane uzere teharrus u teterruse ri‘ayet ederek, o makû le erbab-ı dikkatden bir ahadin hanesine hıfz-ı cenab-ı ‘İzzet'le nihayetine kadar ‘azab-ı ta‘un sirayet u isabet etmedi. Hakir dahi da’ire-i ‘acizanemde zukur u inasdan on beş kadar nufus-i  mahfuz ile ba-‘inayet-i Rabbu'l-‘alemin ol saht-ı ‘azimden cumlemiz minkulli'l-
-vucuh musterih u emin olup, şu kadar ki ta‘n-ı nadan ve mezemmet-i ba‘zı ekabir-i bi-‘irfan ve nifak-ı sufehay-ı akran ile azurde vu gamkin olduk ise de;  Gordum zemane halkı nifak uzere sabiten Na-car cumleden kesilup ‘uzlet eyledim  tesliyetiyle melal-i hatırı teskin eder idik. Beyt:
+    <t xml:space="preserve">1812-06-?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Çünki bin iki yuz on altı senesinde vukû‘ bulan kıran-ı intikãlide  sahib-i tali‘-i sal olan Kevkeb-i ‘Utarid, sahib-i samin olan nahs-ı ekberin  raci‘an mukãbelesine muteveccih olup, beynleri takriben on derece kadar  olmağla, “Ve kezâ yedüllü ‘alâ mevt-i kesîrin min-emrâzin menfûretin husûsan mine'l-vebâ’i” ahkamı, tahminen vakt-i sal-i kırandan on sene  mururunda, ya‘ni yirmi yedi senesi eva’ilinde duhul ve ol zeman ta‘un  zuhur edeceğini ahkamiyyun ta ol vakt tefevvuh u iddi‘a ederler idi. el- ‘Uhdetü ‘alâ men ya‘tekıdü ve ‘alâ zu‘m-i men yedde‘î.  Bundan akdem bi't-tab‘ te‘affun-i arz u hevasiyle ‘adeten yine Mısır'a  ta‘un tari ve mücerreb u cari olduğu uzere amed u reft münasebetiyle andan  İzmir'e sari olmağla, bu günlerde İzmir'den İstanbul'a gelan bir bazergan  sefinesinde dahi esnay-ı rahda ta‘un zuhur edüp, içindeki Rum ta’ifesinden  birkaçı mat‘unen helak olarak sefine-i mezbure Galata sahiline gelüp, karar ve  ol aralıkda birkaçı dahi te’sir-i veba ile bimar oldukda, mellahların bakıyyesi bi'l-cümle gemiden cıkup Galata ve Bey-oğlu ve Tatavla'da Rum mahallelerinde hem-şehrileri hanelerinde ve ba‘zı fevahiş süknalarında tard u ib‘ad havfiyle ta‘undan firar eylediklerini ketm u izmar ederek istikrar eylemişler  ise de, Fetâvây-ı Zahîriyye'de mezkur olduğu üzere İmam Tahavi'nin  ihrac eylediği, “İzâ vaka‘a haze'r-riczü bi-arzın felâ tedhûlûhâ ve izâ vaka‘a ve entüm fîhâ felâ tahrucû minhâ” hadis-i şerifi muktezasınca bu maraz-ı  sari bi-izn-i Bari ol mahallere dahi tari olup, ibtida yine merkûm mellahlarda  ve eğlendikleri yerlerde ve mücaveret ü ihtilat eyledikleri kimselerde rical ü  nisvan u sıbyandan ba‘zı kesanda sirayet-i semmiyyet-i hadde-i vebeviyye ile  bir ta‘un-i seri‘u'l-ihlak zuhuriyle mat‘un olanlar sekizer onar sa‘at vakitde  fevt u helak olmağa başladılar. Bina’en ‘aleyh ol civarda bulunan ve anlarla  ihtilat etmiş olan Eravim ve Ermeniyan, Fenar ve Kiremid Mahallesi ve Kumkapu  semtlerinde ba‘zan kendu evleri ve ba‘zan aşinaları hanelerine evlad u  ‘iyalleriyle havf-ı canla nakl ü iskan eylediklerinde, Asitane-i ‘aliyye'de dahi ibtida Fenar ve Kum-kapu taraflarında nagehan ta‘un hadis ü  raygan ve der-‘akab mecma‘-i ehl-i zimmet olan carşu hanlarına tareyan ve andan ehl-i İslam mahallelerine sereyan edup ve'l-hasıl bütün İstanbul ve  havalisine münteşir olmağla, halk üç beş gün zarfında iza‘a-i evlad u ‘iyal ve ifate-i ehibba vu hem-hal ederek, ta‘un musibetiyle dahi mahzun u  mütekeddir olmağa başladılar. Ashab-ı tahkik u istibsar dahi hazret-i Rasul-i  cenab-ı Kird-gar salavâtullâhi ‘aleyhi ve âlihî bi'l-‘aşâyâ ve'l-eshâr:  “Hacer-i Semud nam mesken-i Kavm-i Salih ‘aleyhi's-selâmdan esnay-ı  mururlarında ashab-ı kiramlariyle sahatullâhu ile helak olmuş kavm  meskenleridir” buyurup, mahall-i mezkurdan bunca murur-i duhur u  a‘sardan sonra yine meşy-i seri‘ ile güzar birle müba‘adet ihtiyar buyurduklarına sarf-ı im‘an-ı enzar ederek, hane vu meskenlerinde ‘uzlet u  inziva ile “Lâ tedhulû mesâkin'ellezîne zalemû illâ ve entüm bâkûn” hadis-i şerifi mûcebince firar ve ancak du‘ay-ı selamet-i Padişah-ı ‘alem-penah ve  münacat-ı necat-ı ummet-i bi-gunahla emr-i ihtiraz u tehaffuza ibtidar  edenlere ve Sahîh-i Buhârî'de Usametu'bnü Zeyd hazretlerinin rivayetleriyle  musahhah “et-Tâ‘ûnu riczün ürsile ‘alâ tâ’ifetin min-Benî İsrâ’îl” hadis-i şerifi mezayasından haberdar olanlar ve yine ravi-i muşarun ileyhden Meşârıkı şerîf'de musarrah: “İzâ semi‘tümü't-tâ‘ûne bi-arzın felâ tedhulûhâ ve izâ vaka‘a bi-arzın ve entüm fîhâ felâ tahrucû minhâ” hadis-i sahihi emrine asar-ı ‘inad-ı cahili olan tekellufat-ı te’vilatdan kat‘-ı enzar ile ittiba‘ u i‘tibar  eyleyenler ‘ale't-tahkik ashab-ı ülfet ü amizişden cüz’i ve külli musab u  mukedder olmamış hiçbir ferd kalmamişiken, re’y-i hakimane üzere teharrüs ü teterrüse ri‘ayet ederek, o makûle erbab-ı dikkatden bir ahadin hanesine hıfz-ı cenab-ı ‘İzzet'le nihayetine kadar ‘azab-ı ta‘un sirayet u isabet etmedi. Hakir dahi da’ire-i ‘acizanemde zükur u inasdan on beş kadar nüfûs-i  mahfuz ile ba-‘inayet-i Rabbu'l-‘alemin ol saht-ı ‘azimden cumlemiz minkulli'l- vucuh musterih u emin olup, şu kadar ki ta‘n-ı nadan ve mezemmet-i ba‘zı ekabir-i bi-‘irfan ve nifak-ı sufehay-ı akran ile azurde vu gamkin olduk ise de;  Gordum zemane halkı nifak uzere sabiten 
+Na-car cümleden kesilup ‘uzlet eyledim  
+tesliyetiyle melal-i hatırı teskin eder idik. Beyt:
 Kîle enne'l-İlâhe zû-veledin; kîle enne'r-Rasûle kad kehünâ
 Mâ necallâhu ve'r-Rasûlü ma‘an min-lisâni'l-verâ fekeyfe ene
-Ma‘a haza ki gerek fukaha ve gerek hukemadan hicbir kimse bu ‘illetin dahi sa’ir ba‘zı emraz-ı sariye-asa sirayetinde ihtilaf etmeyup, fekat   ‘ulema’-i din “Sari bi-iznillah” kaydiyle hakikat-i hali tebyin1 eylemişlerdir. Hususan ki yuz sene kadar vakte gelince bu hummay-ı vafide-i iltihabiyyenin  bi'd-defe‘at ifna vu berbad eylediği Memalik-i Efrenciyye'de ve bunlardan kat‘-ı nazar mukaddema eyadi-i İslam'da iken ta‘un ve veba aralık aralık  ehalisini imate vu heba eden Kırım ve Ozi ve bunlar gibi memalik u enhada karib-i ‘ahdde ba‘de'l-istila bu ‘illet tehaffuz ve nezaret sebebiyle kulliyyen munkatı‘ u ma‘dum ve ez-cumle aşılama ‘ilmi zuhur edeli oralarda cicek ‘illeti dahi munkatı‘ derecesine geldiği erbab-ı vukû fa ma‘lumdur. Bu  mevaddın re’y-i hukema ve tedbir-i etıbbaya mute‘allık hususatı, te’lifat-ı ‘abd-i Hakir'den tıbba da’ir olup, cild-i evveli ba-irade-i ‘aliyye tab‘ u temsil  ve cild-i sanisi hasbe'l-iktiza ma‘ruz olmayarak3 ile'l-an te’hir olunan Hamse-i Şânî-zâde'de kadr-i ifadede tahrir u tastir olunmuş olup, kaldı ki vebadan hazer  u ihtirazın cevazında ve belki vucub u iftirazında dahi merhum ve mağfur  Sultan Bayezid Han ve dahi cennet-mekan4 Sultan Selim Han ibn Bayezid  Han hazeratının tarih-nuvisi olup, Heşt Behişt nam tarih-i hikmet-iktiranın ve sa’ir Farisi ve ‘Arabi bunca te’lifat-ı mu‘ciz-beyanın musannifi muhit-i ‘ilm u  ‘irfan, vassaf-ı padişahan-ı pişin-i ‘Al-i ‘Osman ve pesin-i mukemmelin-i  namus-i feylesofan5 İdris-i Bidlisi merhumun dokuz yuz on yedi senesi  hilalinde zuhur eden ta‘un-i haşr-numun esnasında, eda’-i hac ve ziyaretden  sonra yine Asitane-i sa‘adet'e muşarun ileyh Selim Han-ı kadr-dan  hazretleri taraf-ı Şahane'lerinden6 da‘vetle ‘avdetlerinde, Şam ve Konya'da  ba‘zı ‘ulema ve fukaha ile bu hususa da’ir mubahase birle te’lif-kerdesi olan  risale-i nefisesine lecace vu ta‘assubdan ‘ari nazar-ı munsıfane kafidir. “Men  yehdillâhu fe-huve'l-mühtedi9 ve men yuzlil fe-len tecide lehû veliyyen mürşidâ”. Şi‘r:
+Ma‘a haza ki gerek fukaha ve gerek hukemadan hicbir kimse bu ‘illetin dahi sa’ir ba‘zı emraz-ı sariye-asa sirayetinde ihtilaf etmeyüp, fekat   ‘ulema’-i din “Sari bi-iznillah” kaydiyle hakikat-i hali tebyin eylemişlerdir. Hususan ki yüz sene kadar vakte gelince bu hummay-ı vafide-i iltihabiyyenin  bi'd-defe‘at ifna vu berbad eylediği Memalik-i Efrenciyye'de ve bunlardan kat‘-ı nazar mukaddema eyadi-i İslam'da iken ta‘un ve veba aralık aralık  ehalisini imate vu heba eden Kırım ve Özi ve bunlar gibi memalik u enhada karib-i ‘ahdde ba‘de'l-istila bu ‘illet tehaffuz ve nezaret sebebiyle kulliyyen munkatı‘ u ma‘dum ve ez-cumle aşılama ‘ilmi zuhur edeli oralarda cicek ‘illeti dahi munkatı‘ derecesine geldiği erbab-ı vukû fa ma‘lumdur. Bu  mevaddın re’y-i hukema ve tedbir-i etıbbaya mute‘allık hususatı, te’lifat-ı ‘abd-i Hakir'den tıbba da’ir olup, cild-i evveli ba-irade-i ‘aliyye tab‘ u temsil  ve cild-i sanisi hasbe'l-iktiza ma‘ruz olmayarak  ile'l-an te’hir olunan Hamse-i Şânî-zâde'de kadr-i ifadede tahrir u tastir olunmuş olup, kaldı ki vebadan hazer  u ihtirazın cevazında ve belki vücub u iftirazında dahi merhum ve mağfur  Sultan Bayezid Han ve dahi cennet-mekan Sultan Selim Han ibn Bayezid  Han hazeratının tarih-nuvisi olup, Heşt Behişt nam tarih-i hikmet-iktiranın ve sa’ir Farisi ve ‘Arabi bunca te’lifat-ı mu‘ciz-beyanın musannifi muhit-i ‘ilm ü  ‘irfan, vassaf-ı padişahan-ı pişin-i ‘Al-i ‘Osman ve pesin-i mukemmelin-i  namus-i feylesofan  İdris-i Bidlisi merhumun dokuz yüz on yedi senesi  hilalinde zuhur eden ta‘un-i haşr-numun esnasında, eda’-i hac ve ziyaretden  sonra yine Asitane-i sa‘adet'e muşarun ileyh Selim Han-ı kadr-dan  hazretleri taraf-ı Şahane'lerinden da‘vetle ‘avdetlerinde, Şam ve Konya'da  ba‘zı ‘ulema ve fukaha ile bu hususa da’ir mübahase birle te’lif-kerdesi olan  risale-i nefisesine lecace vu ta‘assubdan ‘ari nazar-ı munsıfane kafidir. “Men  yehdillâhu fe-huve'l-mühtedi ve men yuzlil fe-len tecide lehû veliyyen mürşidâ”. Şi‘r:
 Ve lem yecidi'l-insânu illâ enne sa‘yehû
-Fe-men kâne es‘â bi'l-mecdi ecdâru1*
+Fe-men kâne es‘â bi'l-mecdi ecdâru
 </t>
   </si>
   <si>
@@ -268,53 +225,39 @@
     <t xml:space="preserve">veba</t>
   </si>
   <si>
-    <t xml:space="preserve">?-?-?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bi-hikmetillahi Te‘ala ta‘un yevmen fe-yevmen ‘amm u muşted ve bu def‘a ise madde-i veba’iyyede be-gã yet şiddet u hiddet ve sur‘at-i sirayet  olmağla, manend-i mesaff-ı ‘aduy-i bi-insaf, nufus-i kesireyi imate vu itlafa  başladı. Ve cunki maraz-ı ta‘un ber-muktezay-ı hadis-i hikmet-numun Benu
-İsra’il'den6 bir ta’ife-i ‘asıyeye min-kıbeli'l-Kahhar mursel bir recz  u ‘azab olup, ancak Vacib Te‘ala hazret[ler]i7 ‘adet-i İlahiyye'si muktezasiyle  cemi‘ mukevvenatı mu‘allak bi'l-esbab eylediği, erbab-ı elbab1 ‘indinde bi-irtiyabdir.  Fe-li-haza hukemay-ı hakã yık-aşinaya gore: “‘Ve men yü’te'l-hikmete
-fe-kad ûtiye hayran kesîrâ’* muktezay-ı  hayr-intimasiyle, maraz-ı mezbura sebeb, ibtida ‘unsur-i hevaya muhtelit4 olarak cevher-i hevayı ifsad u ta‘fin  eden rediyy u tayyar ecza olup, andan ba‘zı muste‘iddinde bir nev‘ hummayı  vebeviyye tekevvun eyledikde, mucaveret ve mukãrebet edenlere ol madde-i  tayyare-i sariye tecavuz u sirayet ve ol semmiyyet-i rediyye gitdikce kesb-i  hiddet u harafet ederek, muktezay-ı hukm-i zeman ve lazime-i fusul u evan  uzere andan bir hummay-ı9 vakıde-i şayi‘a ru-numun olup, eğer mahmumdih- i evram-ı iltihabiyye-i rediyyeden şiş ve kabarcık gibi bir nesne zuhur ederse ana ta‘un denup, eğer bu makû le a‘raza makrun olmazsa, veba ta‘biriyle iktifa olunup, hummeyat-i veba dahi gun-a-gun olur” deyu  mukayyed-i kutub-i etıbba olan kavl-i hukema, ‘ilm u danişe mertebe-i layikada ehl u aşina olan Kã ’im-makãm-ı Rikab-ı mustetab Şakir Ahmed Paşa hazretlerine mukaddema ma‘lum ve sıhhat-i mes’ele-i “Hayâtü'l-mer’i ‘ilmün f'ağtenimhu11” mısra‘ı mefhumuna muvafakatle musbet u mahkum  olmakdan naşi, “Ve huvellezî yakbelü't-tevbete ‘an ‘ibâdihî ve ya‘fû ‘ani'sseyyi’ât” tebşiratına ri‘ayeten, evvela tevessul-i tarika-i şeri‘at ve iştigã l-i
-tevbe vu nedamet levazımına dikkat birle ehl-i İslam cevami‘ u mesacide  evkãt-ı hamsede devam ederek, ba‘de eda’i's-salat ba‘zı seyyid-i istiğfar  ve ba‘zı ed‘iye-i mucerrebu'l-asara kıyam u ihtimam eylemeleri ve bu tedbir-i  zerrin ve ‘ilac-ı ruhani-i14 sıhhat-rehin ile “Ve nünezzilü mine'l-Kur’âni mâ
-huve şifâ’un ve rahmetün li'l-mü’minîn”* kavl-i şerifi muktezasınca tedavi-i  emraz-ı kulub-i na-hub ve istişfay-ı ef’ide-i1 inhiraf-ı mashub murad  olunduğu esnada, “el-‘İlmü ‘ilmâni ‘ilmü'l-ebdâni ve'l-edyâni”mağzasınca  saniyen ‘ilm-i din ile tev’eman olan ‘ilm-i tıbba dahi mura‘at lazimeden  iduği mustağni ‘ani'l-beyan olup, gerci fi zemanina olunan tecribat-ı sahiha ve  tahkikãt-ı layika4 mucebince maraz-ı vebanın vesatat-i heva ile tecavuz u sirayeti ender-i nevadir ve ancak mucaveret u mulamese takribiyle  ısabeti bi't-tecribe muteyakkan u zahir ve bu hususa maraz-ı merkûmun memalik-i sa’ire-i mahfuzeye ‘adem-i tecavuzu bir delil-i kat‘i-yi mutevatir ise de, sebeb-i evvel hudusu yine te‘affun-i ‘unsur-i heva ve andan sonra kat‘ u men‘ine ihtimam olunmadığı halde birbirinden musab olarak tekessuru  huveyda ve hevanın ebdan-ı esıhhada kabule isti‘dad ihdas eylediği dahi  mucerreb-i etıbba olduğundan naşi, “Mâ lâ yüdrakü küllühu lâ yütrakü küllüh” mubtegã sı uzere, ıslah-ı hevada dahi nef‘-i kesir olacağı muhtac-ı  takrir olmamağla, zokaklar ve ba‘zı mezbele-gah mahaller tathir kılınmak ve  buyut u mesakin supurulup pak tutulmak icun dahi eva’il-i mah-ı şa‘banda beyaz ustune fermanlar ısdar ve iktiza eden hukkam ve zabitan ve  mudebbiran ve mudirana tesyar olundu.
+    <t xml:space="preserve">1812-?-?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bi-hikmetillahi Te‘ala ta‘un yevmen fe-yevmen ‘amm ü müşted ve bu def‘a ise madde-i veba’iyyede be-gãyet şiddet ü hiddet ve sür‘at-i sirayet  olmağla, manend-i mesaff-ı ‘aduy-i bi-insaf, nüfus-i kesireyi imate vu itlafa  başladı. Ve çünki maraz-ı ta‘un ber-muktezay-ı hadis-i hikmet-nümun Benu
+İsra’il'den bir ta’ife-i ‘asıyeye min-kıbeli'l-Kahhar mursel bir recz  u ‘azab olup, ancak Vacib Te‘ala hazret[ler]i ‘adet-i İlahiyye'si muktezasiyle  cemi‘ mükevvenatı mu‘allak bi'l-esbab eylediği, erbab-ı elbab ‘indinde bi-irtiyabdir.  Fe-li-haza hukemay-ı hakãyık-aşinaya gore: “‘Ve men yü’te'l-hikmete
+fe-kad ûtiye hayran kesîrâ’ muktezay-ı  hayr-intimasiyle, maraz-ı mezbura sebeb, ibtida ‘unsur-i hevaya muhtelit olarak cevher-i hevayı ifsad ü ta‘fin  eden rediyy ü tayyar ecza olup, andan ba‘zı muste‘iddinde bir nev‘ hummay-ı  vebeviyye tekevvün eyledikde, mücaveret ve mukãrebet edenlere ol madde-i  tayyare-i sariye tecavüz ü sirayet ve ol semmiyyet-i rediyye gitdikce kesb-i  hiddet ü harafet ederek, muktezay-ı hükm-i zeman ve lazime-i fusul ü evan  üzere andan bir hummay-ı vakıde-i şayi‘a ru-üumun olup, eğer mahmumdih- i evram-ı iltihabiyye-i rediyyeden şiş ve kabarcık gibi bir nesne zuhur ederse ana ta‘un denüp, eğer bu makûle a‘raza makrun olmazsa, veba ta‘biriyle iktifa olunup, hümmeyat-i veba dahi gun-a-gun olur” deyu  mukayyed-i kütüb-i etıbba olan kavl-i hukema, ‘ilm u danişe mertebe-i layikada ehl ü aşina olan Kã’im-makãm-ı Rikab-ı müstetab Şakir Ahmed Paşa hazretlerine mukaddema ma‘lum ve sıhhat-i mes’ele-i “Hayâtü'l-mer’i ‘ilmün f'ağtenimhu” mısra‘ı mefhumuna muvafakatle müsbet ü mahkum  olmakdan naşi, “Ve huvellezî yakbelü't-tevbete ‘an ‘ibâdihî ve ya‘fû ‘ani'sseyyi’ât” tebşiratına ri‘ayeten, evvela tevessül-i tarika-i şeri‘at ve iştigãl-i
+tevbe vü nedamet levazımına dikkat birle ehl-i İslam cevami‘ u mesacide  evkãt-ı hamsede devam ederek, ba‘de eda’i's-salat ba‘zı seyyid-i istiğfar  ve ba‘zı ed‘iye-i mücerrebü'l-asara kıyam u ihtimam eylemeleri ve bu tedbir-i  zerrin ve ‘ilac-ı ruhani-i sıhhat-rehin ile “Ve nünezzilü mine'l-Kur’âni mâ
+huve şifâ’un ve rahmetün li'l-mü’minîn” kavl-i şerifi muktezasınca tedavi-i  emraz-ı kulub-i na-hub ve istişfay-ı ef’ide-i inhiraf-ı mashub murad  olunduğu esnada, “el-‘İlmü ‘ilmâni ‘ilmü'l-ebdâni ve'l-edyâni”mağzasınca  saniyen ‘ilm-i din ile tev’eman olan ‘ilm-i tıbba dahi mura‘at lazimeden  idüği müstağni ‘ani'l-beyan olup, gerçi fi zemanina olunan tecribat-ı sahiha ve  tahkikãt-ı layika mucebince maraz-ı vebanın vesatat-i heva ile tecavüz ü sirayeti ender-i nevadir ve ancak mücaveret u mülamese takribiyle  ısabeti bi't-tecribe müteyakkan ü zahir ve bu hususa maraz-ı merkûmun memalik-i sa’ire-i mahfuzeye ‘adem-i tecavuzu bir delil-i kat‘i-yi mütevatir ise de, sebeb-i evvel hudusu yine te‘affun-i ‘unsur-i heva ve andan sonra kat‘ u men‘ine ihtimam olunmadığı halde birbirinden musab olarak tekessurü  huveyda ve hevanın ebdan-ı esıhhada kabule isti‘dad ihdas eylediği dahi  mücerreb-i etıbba olduğundan naşi, “Mâ lâ yüdrakü küllühu lâ yütrakü küllüh” mubtegãsı üzere, ıslah-ı hevada dahi nef‘-i kesir olacağı muhtac-ı  takrir olmamağla, zokaklar ve ba‘zı mezbele-gah mahaller tathir kılınmak ve  buyut u mesakin supurulup pak tutulmak içün dahi eva’il-i mah-ı şa‘banda beyaz üstüne fermanlar ısdar ve iktiza eden hükkam ve zabitan ve  müdebbiran ve müdirana tesyar olundu.
 </t>
   </si>
   <si>
     <t xml:space="preserve">566-568</t>
   </si>
   <si>
+    <t xml:space="preserve">1812-10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hedm-i odahây-ı süfehâ ve men'-i fevâhiş ez-behr-i temennây-ı indifâ -ı vebâ 
+Hudûs-i tâ'ûn ve vebâ âsâr-ı  kesret-i fisk u zinâ olduğuna ibtinâ’en, bu takrîble mecma'-i eşkıyâ olan bekâr odalarını hedm ü imhâ birle, tefrîk-ı cemʻiyyet-i süfehâ dahi re’y-i savâb-ı ba'zi erbâb-i câh-ı takvâ-intimâ olmakdan nâşî, şevvâl-i şerîfin on sekizinci sebt günü Kā’im-makām Paşa, Mi'mâr Ağa ve Ocaklu'dan bir mikdâr zâbitân ve neferât ve husûsan müşârun ileyh Tüfengci-başı nasb eyledikleri Tavuk-pazarlı ricâl-i ağa ve vâfir ‘ameleyi istishâbla Bağçe-kapusu'na gelüp, sandalî-nişîn-i nezâret olarak  Melek-girmez Zokakı'nda ve kayık-hâneler üzerlerindeki odaların cümlesini der-akab Mi'mâr Ağa, ‘amelesiyle bâ-emr-i âlî hedme başlayup, birkaç sâʻatde imhâ eylediler 
+Ve Kapudan Paşa dahi Galata ve Kāsım-paşa taraflarındaki Kalyoncu ve Kalafatcı erâzili odalarını hedme meʼmûr kılınmağla, yevm-i merkūmda müşârun ileyh dahi bi'n-nefs varup anların hedmi kābil olanlarını kezâlik hedm ü kal' birle nesyen mensiyyâ edüp, ancak baʻzı hânlarda olan kârgîr odaları erâzil ü fevâhişden tahliye ve temhîr ile lâzime-i meʼmûriyyetini icrâ eyledi. 
+Hattâ ol esnâda gerek İstanbul ve gerek Galata'da hedm ü tahliye olunan odaların baʻzında henûz tâ'ûndan fevt olmuş ba‘zı kimselerin meytelerini ebnâ’-i cinsleri zokaklarda gasl etdirdiler. Ve ol odalarda baʼzı mat‘ûne olmuş ve baʻzı da henûz fevt olmuş birkaç fâhişe nisâ dahi zuhûr eyledi. Nazm: 
+Izâ nezele'l-vebâ'u 'alâ diyârin Se-yühlikü külle zî-‘izzin ve be'sin 
+İzâ vaka'a'ş-şerâretü fî metâ'in Se-tahriku zâke min-ratbin ve yâbisin
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">584-585</t>
+  </si>
+  <si>
     <t xml:space="preserve">1812-11-06-1812-11-15</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">Teşrin-i evvelin ibtidası ve mah-ı zilka‘denin eva’ilindetekarrub-i fasl-ı şita ile ‘illet-i veba bir mikdar sukun u inhitata ma’ile olmağla, nefs-i dahil-i sur-i Kostantiniyye'den yevmiyye ancak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">beş yuz mevta cıkmağa başladı.</t>
-    </r>
+    <t xml:space="preserve">Teşrin-i evvelin ibtidası ve mah-ı zilka‘denin eva’ilinde tekarrub-i fasl-ı şita ile ‘illet-i veba bir mikdar sükun u inhitata ma’ile olmağla, nefs-i dahil-i sur-i Kostantiniyye'den yevmiyye ancak beş yüz mevta çıkmağa başladı.</t>
   </si>
 </sst>
 </file>
@@ -325,7 +268,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -372,11 +315,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9.5"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="162"/>
     </font>
     <font>
       <sz val="11"/>
@@ -385,23 +328,8 @@
       <family val="1"/>
       <charset val="162"/>
     </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="162"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +340,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -462,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -499,76 +433,80 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -632,7 +570,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -656,13 +594,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="135.86"/>
@@ -735,13 +673,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="12" t="n">
@@ -767,7 +705,7 @@
       <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -793,10 +731,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -825,7 +763,7 @@
       <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -854,7 +792,7 @@
       <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -883,7 +821,7 @@
       <c r="A8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -909,10 +847,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -938,10 +876,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -967,10 +905,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -996,10 +934,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -1025,10 +963,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1053,18 +991,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+    <row r="14" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12" t="n">
-        <v>590</v>
+      <c r="D14" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>12</v>
@@ -1082,93 +1020,122 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+    <row r="15" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="n">
+        <v>590</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
